--- a/videos.xlsx
+++ b/videos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t xml:space="preserve">link</t>
   </si>
@@ -31,16 +31,22 @@
     <t xml:space="preserve">description </t>
   </si>
   <si>
+    <t xml:space="preserve">tags</t>
+  </si>
+  <si>
     <t xml:space="preserve">done</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.tiktok.com/@hazlotumismogratis/video/7033534760987282694?is_copy_url=1&amp;is_from_webapp=v1</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample video 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">this a sample video</t>
+    <t xml:space="preserve">My Video 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this a sample video from tiktok 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shorts,tiktok,dancing,sample,freetime,sample1</t>
   </si>
   <si>
     <t xml:space="preserve">no</t>
@@ -49,13 +55,25 @@
     <t xml:space="preserve">https://www.tiktok.com/@nahuelivorra/video/7033033302176992518?is_copy_url=1&amp;is_from_webapp=v1</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample video 4</t>
+    <t xml:space="preserve">My Video 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this a sample video from tiktok 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shorts,tiktok,dancing,sample,freetime,sample2</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.tiktok.com/@elmontana500/video/7033519202371734790?is_copy_url=1&amp;is_from_webapp=v1</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample video 5</t>
+    <t xml:space="preserve">My Video 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this a sample video from tiktok 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shorts,tiktok,dancing,sample,freetime,sample3</t>
   </si>
 </sst>
 </file>
@@ -167,17 +185,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="116.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="818" min="3" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="819" min="5" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -193,47 +213,59 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/videos.xlsx
+++ b/videos.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">done</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.tiktok.com/@hazlotumismogratis/video/7033534760987282694?is_copy_url=1&amp;is_from_webapp=v1</t>
+    <t xml:space="preserve">https://www.tiktok.com/@montpantoja/video/7036062147075476741?lang=es&amp;is_copy_url=0&amp;is_from_webapp=v1&amp;sender_device=pc&amp;sender_web_id=7036288670874256902</t>
   </si>
   <si>
     <t xml:space="preserve">My Video 1</t>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">no</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.tiktok.com/@nahuelivorra/video/7033033302176992518?is_copy_url=1&amp;is_from_webapp=v1</t>
+    <t xml:space="preserve">https://www.tiktok.com/@francoescamillaofficial/video/7035345169553575174?is_copy_url=0&amp;is_from_webapp=v1&amp;lang=es&amp;sender_device=pc&amp;sender_web_id=7036288670874256902</t>
   </si>
   <si>
     <t xml:space="preserve">My Video 2</t>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">shorts,tiktok,dancing,sample,freetime,sample2</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.tiktok.com/@elmontana500/video/7033519202371734790?is_copy_url=1&amp;is_from_webapp=v1</t>
+    <t xml:space="preserve">https://www.tiktok.com/@pongamoslo_a_prueba/video/7036136235810983173?is_copy_url=1&amp;is_from_webapp=v1&amp;lang=es</t>
   </si>
   <si>
     <t xml:space="preserve">My Video 3</t>
@@ -188,7 +188,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
